--- a/resource/excel/DropPool——掉落库.xlsx
+++ b/resource/excel/DropPool——掉落库.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="DropPool-掉落库" sheetId="1" r:id="rId1"/>
+    <sheet name="DropPool" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>number</t>
@@ -134,7 +137,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +170,6 @@
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -656,148 +652,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,14 +811,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1148,15 +1144,15 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75892857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="140.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1198,46 +1194,46 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1245,16 +1241,16 @@
         <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1262,16 +1258,16 @@
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1279,16 +1275,16 @@
         <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1296,16 +1292,16 @@
         <v>1004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
